--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/Top Diseases by Disgenet.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/Top Diseases by Disgenet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="169">
   <si>
     <t>Disease</t>
   </si>
@@ -21,523 +21,505 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>1390</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>1289</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>1535</t>
-  </si>
-  <si>
-    <t>987</t>
-  </si>
-  <si>
-    <t>1295</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>931</t>
-  </si>
-  <si>
-    <t>1359</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>1487</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>837</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>872</t>
-  </si>
-  <si>
-    <t>1159</t>
-  </si>
-  <si>
-    <t>1473</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>1596</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1197</t>
-  </si>
-  <si>
-    <t>1476</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>94</t>
+    <t>1767</t>
+  </si>
+  <si>
+    <t>2714</t>
+  </si>
+  <si>
+    <t>1654</t>
+  </si>
+  <si>
+    <t>2480</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>2094</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>3053</t>
+  </si>
+  <si>
+    <t>2488</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>2622</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>1813</t>
+  </si>
+  <si>
+    <t>2957</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>2231</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>2072</t>
+  </si>
+  <si>
+    <t>2194</t>
+  </si>
+  <si>
+    <t>3176</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>1815</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>2924</t>
+  </si>
+  <si>
+    <t>1565</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>2930</t>
+  </si>
+  <si>
+    <t>1766</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>Liver Cirrhosis, Experimental</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>Kartagener Syndrome</t>
+  </si>
+  <si>
+    <t>Progeria</t>
+  </si>
+  <si>
+    <t>Episodic ataxia type 2 (disorder)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Pseudohypoparathyroidism, Type Ia</t>
+  </si>
+  <si>
+    <t>Timothy syndrome</t>
+  </si>
+  <si>
+    <t>Prostatic Neoplasms</t>
+  </si>
+  <si>
+    <t>Mammary Neoplasms</t>
+  </si>
+  <si>
+    <t>Bipolar Disorder</t>
+  </si>
+  <si>
+    <t>Liver carcinoma</t>
+  </si>
+  <si>
+    <t>Leukemia, Myelocytic, Acute</t>
+  </si>
+  <si>
+    <t>Colorectal Neoplasms</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Endometriosis</t>
+  </si>
+  <si>
+    <t>melanoma</t>
+  </si>
+  <si>
+    <t>Alcoholic Intoxication, Chronic</t>
+  </si>
+  <si>
+    <t>Lung Neoplasms</t>
+  </si>
+  <si>
+    <t>Stomach Neoplasms</t>
+  </si>
+  <si>
+    <t>Hypertensive disease</t>
+  </si>
+  <si>
+    <t>Influenza</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Neoplasm Metastasis</t>
+  </si>
+  <si>
+    <t>Major Depressive Disorder</t>
+  </si>
+  <si>
+    <t>Depressive disorder</t>
+  </si>
+  <si>
+    <t>Colonic Neoplasms</t>
+  </si>
+  <si>
+    <t>Intellectual Disability</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>Juvenile arthritis</t>
+  </si>
+  <si>
+    <t>Myocardial Ischemia</t>
+  </si>
+  <si>
+    <t>Non-Small Cell Lung Carcinoma</t>
+  </si>
+  <si>
+    <t>Unipolar Depression</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Lupus Erythematosus, Systemic</t>
+  </si>
+  <si>
+    <t>Animal Mammary Neoplasms</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus, Non-Insulin-Dependent</t>
+  </si>
+  <si>
+    <t>Polycystic Ovary Syndrome</t>
+  </si>
+  <si>
+    <t>Autistic Disorder</t>
+  </si>
+  <si>
+    <t>Spontaneous abortion</t>
+  </si>
+  <si>
+    <t>Immunologic Deficiency Syndromes</t>
+  </si>
+  <si>
+    <t>Mental Depression</t>
+  </si>
+  <si>
+    <t>Squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>Liver Cirrhosis</t>
+  </si>
+  <si>
+    <t>Mammary Neoplasms, Experimental</t>
+  </si>
+  <si>
+    <t>Cleft Palate</t>
+  </si>
+  <si>
+    <t>IGA Glomerulonephritis</t>
+  </si>
+  <si>
+    <t>Inflammation</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>1879</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>1354</t>
+  </si>
+  <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>1746</t>
+  </si>
+  <si>
+    <t>2213</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>1764</t>
+  </si>
+  <si>
+    <t>1891</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>1493</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>1691</t>
+  </si>
+  <si>
+    <t>2073</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>1838</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1313</t>
   </si>
   <si>
     <t>147</t>
   </si>
   <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>843</t>
-  </si>
-  <si>
-    <t>Liver Cirrhosis, Experimental</t>
-  </si>
-  <si>
-    <t>Schizophrenia</t>
-  </si>
-  <si>
-    <t>Kartagener Syndrome</t>
-  </si>
-  <si>
-    <t>Episodic ataxia type 2 (disorder)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Progeria</t>
-  </si>
-  <si>
-    <t>Pseudohypoparathyroidism, Type Ia</t>
-  </si>
-  <si>
-    <t>Timothy syndrome</t>
-  </si>
-  <si>
-    <t>Mammary Neoplasms</t>
-  </si>
-  <si>
-    <t>Prostatic Neoplasms</t>
-  </si>
-  <si>
-    <t>Bipolar Disorder</t>
-  </si>
-  <si>
-    <t>Leukemia, Myelocytic, Acute</t>
-  </si>
-  <si>
-    <t>Liver carcinoma</t>
-  </si>
-  <si>
-    <t>Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>Influenza</t>
-  </si>
-  <si>
-    <t>Hypertensive disease</t>
-  </si>
-  <si>
-    <t>Stomach Neoplasms</t>
-  </si>
-  <si>
-    <t>Lupus Erythematosus, Systemic</t>
-  </si>
-  <si>
-    <t>Neoplasm Metastasis</t>
-  </si>
-  <si>
-    <t>Endometriosis</t>
-  </si>
-  <si>
-    <t>Colorectal Neoplasms</t>
-  </si>
-  <si>
-    <t>Diabetes Mellitus, Non-Insulin-Dependent</t>
-  </si>
-  <si>
-    <t>Obesity</t>
-  </si>
-  <si>
-    <t>Major Depressive Disorder</t>
-  </si>
-  <si>
-    <t>Inflammation</t>
-  </si>
-  <si>
-    <t>melanoma</t>
-  </si>
-  <si>
-    <t>Myocardial Ischemia</t>
-  </si>
-  <si>
-    <t>Depressive disorder</t>
-  </si>
-  <si>
-    <t>Immunologic Deficiency Syndromes</t>
-  </si>
-  <si>
-    <t>Juvenile arthritis</t>
-  </si>
-  <si>
-    <t>Non-Small Cell Lung Carcinoma</t>
-  </si>
-  <si>
-    <t>Spontaneous abortion</t>
-  </si>
-  <si>
-    <t>Alzheimer's Disease</t>
-  </si>
-  <si>
-    <t>Epilepsy</t>
-  </si>
-  <si>
-    <t>IGA Glomerulonephritis</t>
-  </si>
-  <si>
-    <t>Unipolar Depression</t>
-  </si>
-  <si>
-    <t>Alcoholic Intoxication, Chronic</t>
-  </si>
-  <si>
-    <t>Colonic Neoplasms</t>
-  </si>
-  <si>
-    <t>HIV Infections</t>
-  </si>
-  <si>
-    <t>Liver Cirrhosis</t>
-  </si>
-  <si>
-    <t>Mental Depression</t>
-  </si>
-  <si>
-    <t>ovarian neoplasm</t>
-  </si>
-  <si>
-    <t>Squamous cell carcinoma</t>
-  </si>
-  <si>
-    <t>Adenocarcinoma</t>
-  </si>
-  <si>
-    <t>Animal Mammary Neoplasms</t>
-  </si>
-  <si>
-    <t>Autistic Disorder</t>
+    <t>165</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>1461</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>2068</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Mental Retardation</t>
+  </si>
+  <si>
+    <t>Psychotic Disorders</t>
+  </si>
+  <si>
+    <t>Seizures</t>
+  </si>
+  <si>
+    <t>Retinitis Pigmentosa</t>
+  </si>
+  <si>
+    <t>Substance-Related Disorders</t>
+  </si>
+  <si>
+    <t>Mood Disorders</t>
+  </si>
+  <si>
+    <t>Nonorganic psychosis</t>
+  </si>
+  <si>
+    <t>Amyotrophic Lateral Sclerosis</t>
+  </si>
+  <si>
+    <t>Blepharoptosis</t>
+  </si>
+  <si>
+    <t>Liver neoplasms</t>
+  </si>
+  <si>
+    <t>Cerebellar Ataxia</t>
+  </si>
+  <si>
+    <t>Ataxia, Spinocerebellar</t>
   </si>
   <si>
     <t>Chemical and Drug Induced Liver Injury</t>
   </si>
   <si>
-    <t>Dermatitis, Allergic Contact</t>
-  </si>
-  <si>
-    <t>Diabetes Mellitus, Experimental</t>
-  </si>
-  <si>
-    <t>Intellectual Disability</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Polycystic Ovary Syndrome</t>
-  </si>
-  <si>
-    <t>Mental Retardation</t>
-  </si>
-  <si>
-    <t>Seizures</t>
-  </si>
-  <si>
-    <t>Alcohol abuse</t>
-  </si>
-  <si>
-    <t>Amyotrophic Lateral Sclerosis</t>
-  </si>
-  <si>
-    <t>Atrophy of cerebellum</t>
-  </si>
-  <si>
-    <t>Cerebellar Ataxia</t>
-  </si>
-  <si>
-    <t>Congenital cataract</t>
-  </si>
-  <si>
-    <t>Congenital Myasthenic Syndromes, Presynaptic</t>
-  </si>
-  <si>
-    <t>Hypercholesterolemia</t>
-  </si>
-  <si>
-    <t>LEFT VENTRICULAR NONCOMPACTION 10</t>
-  </si>
-  <si>
-    <t>Mammary Neoplasms, Experimental</t>
-  </si>
-  <si>
     <t>Myocardial Infarction</t>
   </si>
   <si>
     <t>Myopia</t>
   </si>
   <si>
-    <t>Nonorganic psychosis</t>
-  </si>
-  <si>
-    <t>Osteogenesis imperfecta type IV (disorder)</t>
-  </si>
-  <si>
-    <t>Osteoporosis</t>
-  </si>
-  <si>
-    <t>Porokeratosis of Mibelli</t>
-  </si>
-  <si>
-    <t>Porokeratosis, Disseminated Superficial Actinic</t>
-  </si>
-  <si>
-    <t>Premature Birth</t>
-  </si>
-  <si>
-    <t>Psychotic Disorders</t>
-  </si>
-  <si>
-    <t>Substance-Related Disorders</t>
-  </si>
-  <si>
-    <t>1700040D17Rik</t>
-  </si>
-  <si>
-    <t>4930506C21Rik</t>
+    <t>Amphetamine-Related Disorders</t>
+  </si>
+  <si>
+    <t>Anemia</t>
   </si>
 </sst>
 </file>
@@ -605,7 +587,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>95.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +598,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>51.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="4">
@@ -627,7 +609,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>34.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="5">
@@ -638,7 +620,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>33.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="6">
@@ -649,7 +631,7 @@
         <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>33.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="7">
@@ -660,7 +642,7 @@
         <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="8">
@@ -671,7 +653,7 @@
         <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="9">
@@ -682,7 +664,7 @@
         <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>33.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="10">
@@ -693,7 +675,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>28.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +686,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>28.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="12">
@@ -715,7 +697,7 @@
         <v>62</v>
       </c>
       <c r="C12" t="n">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="13">
@@ -726,7 +708,7 @@
         <v>63</v>
       </c>
       <c r="C13" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="14">
@@ -737,7 +719,7 @@
         <v>64</v>
       </c>
       <c r="C14" t="n">
-        <v>23.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="15">
@@ -748,7 +730,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="16">
@@ -759,7 +741,7 @@
         <v>66</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="17">
@@ -770,7 +752,7 @@
         <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="18">
@@ -781,7 +763,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
@@ -792,7 +774,7 @@
         <v>69</v>
       </c>
       <c r="C19" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -803,7 +785,7 @@
         <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -814,7 +796,7 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -825,7 +807,7 @@
         <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -836,7 +818,7 @@
         <v>73</v>
       </c>
       <c r="C23" t="n">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="24">
@@ -847,7 +829,7 @@
         <v>74</v>
       </c>
       <c r="C24" t="n">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="25">
@@ -858,7 +840,7 @@
         <v>75</v>
       </c>
       <c r="C25" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="26">
@@ -869,7 +851,7 @@
         <v>76</v>
       </c>
       <c r="C26" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="27">
@@ -880,7 +862,7 @@
         <v>77</v>
       </c>
       <c r="C27" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="28">
@@ -891,7 +873,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="29">
@@ -902,7 +884,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="30">
@@ -913,7 +895,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="31">
@@ -924,7 +906,7 @@
         <v>81</v>
       </c>
       <c r="C31" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="32">
@@ -935,7 +917,7 @@
         <v>82</v>
       </c>
       <c r="C32" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="33">
@@ -946,7 +928,7 @@
         <v>83</v>
       </c>
       <c r="C33" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="34">
@@ -957,7 +939,7 @@
         <v>84</v>
       </c>
       <c r="C34" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="35">
@@ -968,7 +950,7 @@
         <v>85</v>
       </c>
       <c r="C35" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="36">
@@ -979,7 +961,7 @@
         <v>86</v>
       </c>
       <c r="C36" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="37">
@@ -990,7 +972,7 @@
         <v>87</v>
       </c>
       <c r="C37" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="38">
@@ -1001,7 +983,7 @@
         <v>88</v>
       </c>
       <c r="C38" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +994,7 @@
         <v>89</v>
       </c>
       <c r="C39" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="40">
@@ -1023,7 +1005,7 @@
         <v>90</v>
       </c>
       <c r="C40" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="41">
@@ -1034,7 +1016,7 @@
         <v>91</v>
       </c>
       <c r="C41" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="42">
@@ -1045,7 +1027,7 @@
         <v>92</v>
       </c>
       <c r="C42" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="43">
@@ -1056,7 +1038,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="44">
@@ -1067,7 +1049,7 @@
         <v>94</v>
       </c>
       <c r="C44" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="45">
@@ -1078,7 +1060,7 @@
         <v>95</v>
       </c>
       <c r="C45" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="46">
@@ -1089,7 +1071,7 @@
         <v>96</v>
       </c>
       <c r="C46" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="47">
@@ -1100,7 +1082,7 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="48">
@@ -1111,7 +1093,7 @@
         <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="49">
@@ -1122,7 +1104,7 @@
         <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1115,7 @@
         <v>100</v>
       </c>
       <c r="C50" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="51">
@@ -1144,7 +1126,7 @@
         <v>101</v>
       </c>
       <c r="C51" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -1174,10 +1156,10 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="3">
@@ -1185,10 +1167,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>32.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="4">
@@ -1196,10 +1178,10 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
-        <v>32.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="5">
@@ -1207,10 +1189,10 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>32.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="6">
@@ -1221,7 +1203,7 @@
         <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>32.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="7">
@@ -1232,7 +1214,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="n">
-        <v>32.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="8">
@@ -1243,7 +1225,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>15.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="9">
@@ -1254,7 +1236,7 @@
         <v>62</v>
       </c>
       <c r="C9" t="n">
-        <v>8.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="10">
@@ -1265,7 +1247,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="n">
-        <v>7.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="11">
@@ -1273,10 +1255,10 @@
         <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="12">
@@ -1284,10 +1266,10 @@
         <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -1295,10 +1277,10 @@
         <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -1306,10 +1288,10 @@
         <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="15">
@@ -1317,10 +1299,10 @@
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
@@ -1328,395 +1310,395 @@
         <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="C23" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C29" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C33" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C34" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C35" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="C36" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C37" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C39" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="C41" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="C42" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="C44" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C45" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C46" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C47" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C48" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="C49" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C50" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/Top Diseases by Disgenet.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/Top Diseases by Disgenet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
   <si>
     <t>Disease</t>
   </si>
@@ -21,505 +21,523 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>1767</t>
-  </si>
-  <si>
-    <t>2714</t>
-  </si>
-  <si>
-    <t>1654</t>
-  </si>
-  <si>
-    <t>2480</t>
-  </si>
-  <si>
-    <t>988</t>
-  </si>
-  <si>
-    <t>2094</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>3053</t>
-  </si>
-  <si>
-    <t>2488</t>
-  </si>
-  <si>
-    <t>1862</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>1765</t>
-  </si>
-  <si>
-    <t>1730</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>2622</t>
-  </si>
-  <si>
-    <t>974</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>1813</t>
-  </si>
-  <si>
-    <t>2957</t>
-  </si>
-  <si>
-    <t>1453</t>
-  </si>
-  <si>
-    <t>1583</t>
-  </si>
-  <si>
-    <t>2231</t>
-  </si>
-  <si>
-    <t>2128</t>
-  </si>
-  <si>
-    <t>1852</t>
+    <t>933</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>1359</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>441</t>
   </si>
   <si>
     <t>843</t>
   </si>
   <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>1586</t>
-  </si>
-  <si>
-    <t>986</t>
-  </si>
-  <si>
-    <t>1645</t>
-  </si>
-  <si>
-    <t>2072</t>
-  </si>
-  <si>
-    <t>2194</t>
-  </si>
-  <si>
-    <t>3176</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>1815</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>864</t>
-  </si>
-  <si>
-    <t>2440</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>2924</t>
-  </si>
-  <si>
-    <t>1565</t>
-  </si>
-  <si>
-    <t>1914</t>
-  </si>
-  <si>
-    <t>2930</t>
-  </si>
-  <si>
-    <t>1766</t>
-  </si>
-  <si>
-    <t>1863</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>1519</t>
-  </si>
-  <si>
-    <t>1579</t>
-  </si>
-  <si>
-    <t>173</t>
+    <t>Liver Cirrhosis, Experimental</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>Kartagener Syndrome</t>
+  </si>
+  <si>
+    <t>Episodic ataxia type 2 (disorder)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Progeria</t>
+  </si>
+  <si>
+    <t>Pseudohypoparathyroidism, Type Ia</t>
+  </si>
+  <si>
+    <t>Timothy syndrome</t>
+  </si>
+  <si>
+    <t>Mammary Neoplasms</t>
+  </si>
+  <si>
+    <t>Prostatic Neoplasms</t>
+  </si>
+  <si>
+    <t>Bipolar Disorder</t>
+  </si>
+  <si>
+    <t>Leukemia, Myelocytic, Acute</t>
+  </si>
+  <si>
+    <t>Liver carcinoma</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Influenza</t>
+  </si>
+  <si>
+    <t>Hypertensive disease</t>
+  </si>
+  <si>
+    <t>Stomach Neoplasms</t>
+  </si>
+  <si>
+    <t>Lupus Erythematosus, Systemic</t>
+  </si>
+  <si>
+    <t>Neoplasm Metastasis</t>
+  </si>
+  <si>
+    <t>Endometriosis</t>
+  </si>
+  <si>
+    <t>Colorectal Neoplasms</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus, Non-Insulin-Dependent</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Major Depressive Disorder</t>
+  </si>
+  <si>
+    <t>Inflammation</t>
+  </si>
+  <si>
+    <t>melanoma</t>
+  </si>
+  <si>
+    <t>Myocardial Ischemia</t>
+  </si>
+  <si>
+    <t>Depressive disorder</t>
+  </si>
+  <si>
+    <t>Immunologic Deficiency Syndromes</t>
+  </si>
+  <si>
+    <t>Juvenile arthritis</t>
+  </si>
+  <si>
+    <t>Non-Small Cell Lung Carcinoma</t>
+  </si>
+  <si>
+    <t>Spontaneous abortion</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>IGA Glomerulonephritis</t>
+  </si>
+  <si>
+    <t>Unipolar Depression</t>
+  </si>
+  <si>
+    <t>Alcoholic Intoxication, Chronic</t>
+  </si>
+  <si>
+    <t>Colonic Neoplasms</t>
+  </si>
+  <si>
+    <t>HIV Infections</t>
+  </si>
+  <si>
+    <t>Liver Cirrhosis</t>
+  </si>
+  <si>
+    <t>Mental Depression</t>
+  </si>
+  <si>
+    <t>ovarian neoplasm</t>
+  </si>
+  <si>
+    <t>Squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Animal Mammary Neoplasms</t>
+  </si>
+  <si>
+    <t>Autistic Disorder</t>
+  </si>
+  <si>
+    <t>Chemical and Drug Induced Liver Injury</t>
+  </si>
+  <si>
+    <t>Dermatitis, Allergic Contact</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus, Experimental</t>
+  </si>
+  <si>
+    <t>Intellectual Disability</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>265</t>
   </si>
   <si>
     <t>291</t>
   </si>
   <si>
-    <t>Liver Cirrhosis, Experimental</t>
-  </si>
-  <si>
-    <t>Schizophrenia</t>
-  </si>
-  <si>
-    <t>Kartagener Syndrome</t>
-  </si>
-  <si>
-    <t>Progeria</t>
-  </si>
-  <si>
-    <t>Episodic ataxia type 2 (disorder)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Pseudohypoparathyroidism, Type Ia</t>
-  </si>
-  <si>
-    <t>Timothy syndrome</t>
-  </si>
-  <si>
-    <t>Prostatic Neoplasms</t>
-  </si>
-  <si>
-    <t>Mammary Neoplasms</t>
-  </si>
-  <si>
-    <t>Bipolar Disorder</t>
-  </si>
-  <si>
-    <t>Liver carcinoma</t>
-  </si>
-  <si>
-    <t>Leukemia, Myelocytic, Acute</t>
-  </si>
-  <si>
-    <t>Colorectal Neoplasms</t>
-  </si>
-  <si>
-    <t>Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>Endometriosis</t>
-  </si>
-  <si>
-    <t>melanoma</t>
-  </si>
-  <si>
-    <t>Alcoholic Intoxication, Chronic</t>
-  </si>
-  <si>
-    <t>Lung Neoplasms</t>
-  </si>
-  <si>
-    <t>Stomach Neoplasms</t>
-  </si>
-  <si>
-    <t>Hypertensive disease</t>
-  </si>
-  <si>
-    <t>Influenza</t>
-  </si>
-  <si>
-    <t>Obesity</t>
-  </si>
-  <si>
-    <t>Neoplasm Metastasis</t>
-  </si>
-  <si>
-    <t>Major Depressive Disorder</t>
-  </si>
-  <si>
-    <t>Depressive disorder</t>
-  </si>
-  <si>
-    <t>Colonic Neoplasms</t>
-  </si>
-  <si>
-    <t>Intellectual Disability</t>
-  </si>
-  <si>
-    <t>Epilepsy</t>
-  </si>
-  <si>
-    <t>Juvenile arthritis</t>
-  </si>
-  <si>
-    <t>Myocardial Ischemia</t>
-  </si>
-  <si>
-    <t>Non-Small Cell Lung Carcinoma</t>
-  </si>
-  <si>
-    <t>Unipolar Depression</t>
-  </si>
-  <si>
-    <t>Adenocarcinoma</t>
-  </si>
-  <si>
-    <t>Lupus Erythematosus, Systemic</t>
-  </si>
-  <si>
-    <t>Animal Mammary Neoplasms</t>
-  </si>
-  <si>
-    <t>Diabetes Mellitus, Non-Insulin-Dependent</t>
+    <t>292</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Polycystic Ovary Syndrome</t>
   </si>
   <si>
-    <t>Autistic Disorder</t>
-  </si>
-  <si>
-    <t>Spontaneous abortion</t>
-  </si>
-  <si>
-    <t>Immunologic Deficiency Syndromes</t>
-  </si>
-  <si>
-    <t>Mental Depression</t>
-  </si>
-  <si>
-    <t>Squamous cell carcinoma</t>
-  </si>
-  <si>
-    <t>Liver Cirrhosis</t>
+    <t>Mental Retardation</t>
+  </si>
+  <si>
+    <t>Seizures</t>
+  </si>
+  <si>
+    <t>Alcohol abuse</t>
+  </si>
+  <si>
+    <t>Amyotrophic Lateral Sclerosis</t>
+  </si>
+  <si>
+    <t>Atrophy of cerebellum</t>
+  </si>
+  <si>
+    <t>Cerebellar Ataxia</t>
+  </si>
+  <si>
+    <t>Congenital cataract</t>
+  </si>
+  <si>
+    <t>Congenital Myasthenic Syndromes, Presynaptic</t>
+  </si>
+  <si>
+    <t>Hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>LEFT VENTRICULAR NONCOMPACTION 10</t>
   </si>
   <si>
     <t>Mammary Neoplasms, Experimental</t>
   </si>
   <si>
-    <t>Cleft Palate</t>
-  </si>
-  <si>
-    <t>IGA Glomerulonephritis</t>
-  </si>
-  <si>
-    <t>Inflammation</t>
-  </si>
-  <si>
-    <t>Alzheimer's Disease</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>1133</t>
-  </si>
-  <si>
-    <t>727</t>
-  </si>
-  <si>
-    <t>1470</t>
-  </si>
-  <si>
-    <t>1739</t>
-  </si>
-  <si>
-    <t>1761</t>
-  </si>
-  <si>
-    <t>2114</t>
-  </si>
-  <si>
-    <t>1879</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>1249</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>1312</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>1349</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>1355</t>
-  </si>
-  <si>
-    <t>1746</t>
-  </si>
-  <si>
-    <t>2213</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>1764</t>
-  </si>
-  <si>
-    <t>1891</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>1493</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>1691</t>
-  </si>
-  <si>
-    <t>2073</t>
-  </si>
-  <si>
-    <t>695</t>
-  </si>
-  <si>
-    <t>1412</t>
-  </si>
-  <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>1838</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>1252</t>
-  </si>
-  <si>
-    <t>1553</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1313</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>1461</t>
-  </si>
-  <si>
-    <t>1468</t>
-  </si>
-  <si>
-    <t>2068</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Mental Retardation</t>
+    <t>Myocardial Infarction</t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t>Nonorganic psychosis</t>
+  </si>
+  <si>
+    <t>Osteogenesis imperfecta type IV (disorder)</t>
+  </si>
+  <si>
+    <t>Osteoporosis</t>
+  </si>
+  <si>
+    <t>Porokeratosis of Mibelli</t>
+  </si>
+  <si>
+    <t>Porokeratosis, Disseminated Superficial Actinic</t>
+  </si>
+  <si>
+    <t>Premature Birth</t>
   </si>
   <si>
     <t>Psychotic Disorders</t>
   </si>
   <si>
-    <t>Seizures</t>
-  </si>
-  <si>
-    <t>Retinitis Pigmentosa</t>
-  </si>
-  <si>
     <t>Substance-Related Disorders</t>
   </si>
   <si>
-    <t>Mood Disorders</t>
-  </si>
-  <si>
-    <t>Nonorganic psychosis</t>
-  </si>
-  <si>
-    <t>Amyotrophic Lateral Sclerosis</t>
-  </si>
-  <si>
-    <t>Blepharoptosis</t>
-  </si>
-  <si>
-    <t>Liver neoplasms</t>
-  </si>
-  <si>
-    <t>Cerebellar Ataxia</t>
-  </si>
-  <si>
-    <t>Ataxia, Spinocerebellar</t>
-  </si>
-  <si>
-    <t>Chemical and Drug Induced Liver Injury</t>
-  </si>
-  <si>
-    <t>Myocardial Infarction</t>
-  </si>
-  <si>
-    <t>Myopia</t>
-  </si>
-  <si>
-    <t>Amphetamine-Related Disorders</t>
-  </si>
-  <si>
-    <t>Anemia</t>
+    <t>1700040D17Rik</t>
+  </si>
+  <si>
+    <t>4930506C21Rik</t>
   </si>
 </sst>
 </file>
@@ -587,7 +605,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>163.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="3">
@@ -598,7 +616,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>105.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +627,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>72.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
@@ -620,7 +638,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>69.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
@@ -631,7 +649,7 @@
         <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>68.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="7">
@@ -642,7 +660,7 @@
         <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>68.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="8">
@@ -653,7 +671,7 @@
         <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>68.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +682,7 @@
         <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>68.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="10">
@@ -675,7 +693,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>63.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="11">
@@ -686,7 +704,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>55.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="12">
@@ -697,7 +715,7 @@
         <v>62</v>
       </c>
       <c r="C12" t="n">
-        <v>50.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
@@ -708,7 +726,7 @@
         <v>63</v>
       </c>
       <c r="C13" t="n">
-        <v>37.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
@@ -719,7 +737,7 @@
         <v>64</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
@@ -730,7 +748,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="16">
@@ -741,7 +759,7 @@
         <v>66</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
@@ -752,7 +770,7 @@
         <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
@@ -763,7 +781,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
@@ -774,7 +792,7 @@
         <v>69</v>
       </c>
       <c r="C19" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +803,7 @@
         <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
@@ -796,7 +814,7 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
@@ -807,7 +825,7 @@
         <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="23">
@@ -818,7 +836,7 @@
         <v>73</v>
       </c>
       <c r="C23" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="24">
@@ -829,7 +847,7 @@
         <v>74</v>
       </c>
       <c r="C24" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="25">
@@ -840,7 +858,7 @@
         <v>75</v>
       </c>
       <c r="C25" t="n">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="26">
@@ -851,7 +869,7 @@
         <v>76</v>
       </c>
       <c r="C26" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="27">
@@ -862,7 +880,7 @@
         <v>77</v>
       </c>
       <c r="C27" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="28">
@@ -873,7 +891,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="29">
@@ -884,7 +902,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="30">
@@ -895,7 +913,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="31">
@@ -906,7 +924,7 @@
         <v>81</v>
       </c>
       <c r="C31" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="32">
@@ -917,7 +935,7 @@
         <v>82</v>
       </c>
       <c r="C32" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="33">
@@ -928,7 +946,7 @@
         <v>83</v>
       </c>
       <c r="C33" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="34">
@@ -939,7 +957,7 @@
         <v>84</v>
       </c>
       <c r="C34" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="35">
@@ -950,7 +968,7 @@
         <v>85</v>
       </c>
       <c r="C35" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="36">
@@ -961,7 +979,7 @@
         <v>86</v>
       </c>
       <c r="C36" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="37">
@@ -972,7 +990,7 @@
         <v>87</v>
       </c>
       <c r="C37" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="38">
@@ -983,7 +1001,7 @@
         <v>88</v>
       </c>
       <c r="C38" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
@@ -994,7 +1012,7 @@
         <v>89</v>
       </c>
       <c r="C39" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="40">
@@ -1005,7 +1023,7 @@
         <v>90</v>
       </c>
       <c r="C40" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="41">
@@ -1016,7 +1034,7 @@
         <v>91</v>
       </c>
       <c r="C41" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="42">
@@ -1027,7 +1045,7 @@
         <v>92</v>
       </c>
       <c r="C42" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="43">
@@ -1038,7 +1056,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1067,7 @@
         <v>94</v>
       </c>
       <c r="C44" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="45">
@@ -1060,7 +1078,7 @@
         <v>95</v>
       </c>
       <c r="C45" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="46">
@@ -1071,7 +1089,7 @@
         <v>96</v>
       </c>
       <c r="C46" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="47">
@@ -1082,7 +1100,7 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="48">
@@ -1093,7 +1111,7 @@
         <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="49">
@@ -1104,7 +1122,7 @@
         <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="50">
@@ -1115,7 +1133,7 @@
         <v>100</v>
       </c>
       <c r="C50" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1144,7 @@
         <v>101</v>
       </c>
       <c r="C51" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -1156,10 +1174,10 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
-        <v>136.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="3">
@@ -1167,10 +1185,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>135.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="4">
@@ -1178,10 +1196,10 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
-        <v>134.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="5">
@@ -1189,10 +1207,10 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>134.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="6">
@@ -1203,7 +1221,7 @@
         <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>134.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="7">
@@ -1214,7 +1232,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="n">
-        <v>134.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="8">
@@ -1225,7 +1243,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>105.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
@@ -1236,7 +1254,7 @@
         <v>62</v>
       </c>
       <c r="C9" t="n">
-        <v>52.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
@@ -1247,7 +1265,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="n">
-        <v>42.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
@@ -1255,10 +1273,10 @@
         <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" t="n">
-        <v>28.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -1266,10 +1284,10 @@
         <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C12" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -1277,10 +1295,10 @@
         <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -1288,10 +1306,10 @@
         <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C14" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -1299,10 +1317,10 @@
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C15" t="n">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -1310,395 +1328,395 @@
         <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C18" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="C19" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C20" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="C21" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C22" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C23" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C24" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C25" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C26" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C27" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C28" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C29" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C30" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="C31" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C32" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="C33" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="C34" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C35" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C36" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C39" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="C41" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="C42" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="C43" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="C44" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C45" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C46" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C47" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C48" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C49" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C50" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C51" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
